--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Plg</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +540,10 @@
         <v>1.397277</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.295943</v>
+        <v>0.05881233333333333</v>
       </c>
       <c r="N2">
-        <v>0.8878290000000001</v>
+        <v>0.176437</v>
       </c>
       <c r="O2">
-        <v>0.02818120871217195</v>
+        <v>0.005710212285055511</v>
       </c>
       <c r="P2">
-        <v>0.02818120871217194</v>
+        <v>0.005710212285055511</v>
       </c>
       <c r="Q2">
-        <v>0.137838115737</v>
+        <v>0.027392373561</v>
       </c>
       <c r="R2">
-        <v>1.240543041633</v>
+        <v>0.246531362049</v>
       </c>
       <c r="S2">
-        <v>0.02818120871217195</v>
+        <v>0.005516543786329347</v>
       </c>
       <c r="T2">
-        <v>0.02818120871217194</v>
+        <v>0.005516543786329347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,10 +602,10 @@
         <v>1.397277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +620,10 @@
         <v>30.616462</v>
       </c>
       <c r="O3">
-        <v>0.9718187912878281</v>
+        <v>0.990872081464405</v>
       </c>
       <c r="P3">
-        <v>0.9718187912878281</v>
+        <v>0.990872081464405</v>
       </c>
       <c r="Q3">
         <v>4.753297574886</v>
@@ -629,10 +632,258 @@
         <v>42.779678173974</v>
       </c>
       <c r="S3">
-        <v>0.9718187912878281</v>
+        <v>0.9572655010314647</v>
       </c>
       <c r="T3">
-        <v>0.9718187912878281</v>
+        <v>0.9572655010314647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.465759</v>
+      </c>
+      <c r="H4">
+        <v>1.397277</v>
+      </c>
+      <c r="I4">
+        <v>0.9660838355812051</v>
+      </c>
+      <c r="J4">
+        <v>0.9660838355812051</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03520066666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.105602</v>
+      </c>
+      <c r="O4">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="P4">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="Q4">
+        <v>0.016395027306</v>
+      </c>
+      <c r="R4">
+        <v>0.147555245754</v>
+      </c>
+      <c r="S4">
+        <v>0.003301790763411029</v>
+      </c>
+      <c r="T4">
+        <v>0.003301790763411029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.049054</v>
+      </c>
+      <c r="I5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05881233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.176437</v>
+      </c>
+      <c r="O5">
+        <v>0.005710212285055511</v>
+      </c>
+      <c r="P5">
+        <v>0.005710212285055511</v>
+      </c>
+      <c r="Q5">
+        <v>0.0009616600664444444</v>
+      </c>
+      <c r="R5">
+        <v>0.008654940598</v>
+      </c>
+      <c r="S5">
+        <v>0.0001936684987261651</v>
+      </c>
+      <c r="T5">
+        <v>0.0001936684987261651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.049054</v>
+      </c>
+      <c r="I6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.20548733333333</v>
+      </c>
+      <c r="N6">
+        <v>30.616462</v>
+      </c>
+      <c r="O6">
+        <v>0.990872081464405</v>
+      </c>
+      <c r="P6">
+        <v>0.990872081464405</v>
+      </c>
+      <c r="Q6">
+        <v>0.1668733252164444</v>
+      </c>
+      <c r="R6">
+        <v>1.501859926948</v>
+      </c>
+      <c r="S6">
+        <v>0.03360658043294026</v>
+      </c>
+      <c r="T6">
+        <v>0.03360658043294026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.049054</v>
+      </c>
+      <c r="I7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03520066666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.105602</v>
+      </c>
+      <c r="O7">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="P7">
+        <v>0.003417706250539468</v>
+      </c>
+      <c r="Q7">
+        <v>0.0005755778342222222</v>
+      </c>
+      <c r="R7">
+        <v>0.005180200508</v>
+      </c>
+      <c r="S7">
+        <v>0.0001159154871284395</v>
+      </c>
+      <c r="T7">
+        <v>0.0001159154871284395</v>
       </c>
     </row>
   </sheetData>
